--- a/data/C_T/csat_dsat.xlsx
+++ b/data/C_T/csat_dsat.xlsx
@@ -420,12 +420,6 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
@@ -448,12 +442,6 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
@@ -476,12 +464,6 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
@@ -504,12 +486,6 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
@@ -532,12 +508,6 @@
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
@@ -560,12 +530,6 @@
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
@@ -588,12 +552,6 @@
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
@@ -616,12 +574,6 @@
       <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
@@ -644,12 +596,6 @@
       <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
@@ -672,12 +618,6 @@
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
@@ -700,12 +640,6 @@
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
@@ -728,12 +662,6 @@
       <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
@@ -756,12 +684,6 @@
       <c r="B26" t="s">
         <v>4</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
@@ -784,12 +706,6 @@
       <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
@@ -812,12 +728,6 @@
       <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
@@ -840,12 +750,6 @@
       <c r="B32" t="s">
         <v>4</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
@@ -868,12 +772,6 @@
       <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
@@ -896,12 +794,6 @@
       <c r="B36" t="s">
         <v>4</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
@@ -924,12 +816,6 @@
       <c r="B38" t="s">
         <v>4</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
@@ -952,12 +838,6 @@
       <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
@@ -980,12 +860,6 @@
       <c r="B42" t="s">
         <v>4</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
@@ -1008,12 +882,6 @@
       <c r="B44" t="s">
         <v>4</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
@@ -1036,12 +904,6 @@
       <c r="B46" t="s">
         <v>4</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
@@ -1064,12 +926,6 @@
       <c r="B48" t="s">
         <v>4</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
@@ -1092,12 +948,6 @@
       <c r="B50" t="s">
         <v>4</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
@@ -1120,12 +970,6 @@
       <c r="B52" t="s">
         <v>4</v>
       </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
@@ -1148,12 +992,6 @@
       <c r="B54" t="s">
         <v>4</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
@@ -1176,12 +1014,6 @@
       <c r="B56" t="s">
         <v>4</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
@@ -1204,12 +1036,6 @@
       <c r="B58" t="s">
         <v>4</v>
       </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
@@ -1232,12 +1058,6 @@
       <c r="B60" t="s">
         <v>4</v>
       </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
@@ -1260,12 +1080,6 @@
       <c r="B62" t="s">
         <v>4</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
@@ -1288,12 +1102,6 @@
       <c r="B64" t="s">
         <v>4</v>
       </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
@@ -1316,12 +1124,6 @@
       <c r="B66" t="s">
         <v>4</v>
       </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
@@ -1344,12 +1146,6 @@
       <c r="B68" t="s">
         <v>4</v>
       </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
@@ -1372,12 +1168,6 @@
       <c r="B70" t="s">
         <v>4</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
@@ -1400,12 +1190,6 @@
       <c r="B72" t="s">
         <v>4</v>
       </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
@@ -1428,12 +1212,6 @@
       <c r="B74" t="s">
         <v>4</v>
       </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
@@ -1456,12 +1234,6 @@
       <c r="B76" t="s">
         <v>4</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
@@ -1484,12 +1256,6 @@
       <c r="B78" t="s">
         <v>4</v>
       </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
@@ -1512,12 +1278,6 @@
       <c r="B80" t="s">
         <v>4</v>
       </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
@@ -1540,12 +1300,6 @@
       <c r="B82" t="s">
         <v>4</v>
       </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
@@ -1568,12 +1322,6 @@
       <c r="B84" t="s">
         <v>4</v>
       </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
@@ -1596,12 +1344,6 @@
       <c r="B86" t="s">
         <v>4</v>
       </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
@@ -1624,12 +1366,6 @@
       <c r="B88" t="s">
         <v>4</v>
       </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
@@ -1652,12 +1388,6 @@
       <c r="B90" t="s">
         <v>4</v>
       </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
@@ -1680,12 +1410,6 @@
       <c r="B92" t="s">
         <v>4</v>
       </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
@@ -1708,12 +1432,6 @@
       <c r="B94" t="s">
         <v>4</v>
       </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
@@ -1736,12 +1454,6 @@
       <c r="B96" t="s">
         <v>4</v>
       </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
@@ -1764,12 +1476,6 @@
       <c r="B98" t="s">
         <v>4</v>
       </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
@@ -1792,12 +1498,6 @@
       <c r="B100" t="s">
         <v>4</v>
       </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
@@ -1820,12 +1520,6 @@
       <c r="B102" t="s">
         <v>4</v>
       </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
@@ -1848,12 +1542,6 @@
       <c r="B104" t="s">
         <v>4</v>
       </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
@@ -1876,12 +1564,6 @@
       <c r="B106" t="s">
         <v>4</v>
       </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
@@ -1904,12 +1586,6 @@
       <c r="B108" t="s">
         <v>4</v>
       </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
@@ -1932,12 +1608,6 @@
       <c r="B110" t="s">
         <v>4</v>
       </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
@@ -1960,12 +1630,6 @@
       <c r="B112" t="s">
         <v>4</v>
       </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
@@ -1988,12 +1652,6 @@
       <c r="B114" t="s">
         <v>4</v>
       </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
@@ -2016,12 +1674,6 @@
       <c r="B116" t="s">
         <v>4</v>
       </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
@@ -2044,12 +1696,6 @@
       <c r="B118" t="s">
         <v>4</v>
       </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
@@ -2072,12 +1718,6 @@
       <c r="B120" t="s">
         <v>4</v>
       </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
@@ -2100,12 +1740,6 @@
       <c r="B122" t="s">
         <v>4</v>
       </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
@@ -2128,12 +1762,6 @@
       <c r="B124" t="s">
         <v>4</v>
       </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
@@ -2156,12 +1784,6 @@
       <c r="B126" t="s">
         <v>4</v>
       </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
@@ -2184,12 +1806,6 @@
       <c r="B128" t="s">
         <v>4</v>
       </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
@@ -2212,12 +1828,6 @@
       <c r="B130" t="s">
         <v>4</v>
       </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
@@ -2240,12 +1850,6 @@
       <c r="B132" t="s">
         <v>4</v>
       </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
-      <c r="D132">
-        <v>0</v>
-      </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
@@ -2268,12 +1872,6 @@
       <c r="B134" t="s">
         <v>4</v>
       </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
@@ -2296,12 +1894,6 @@
       <c r="B136" t="s">
         <v>4</v>
       </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
@@ -2324,12 +1916,6 @@
       <c r="B138" t="s">
         <v>4</v>
       </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
@@ -2352,12 +1938,6 @@
       <c r="B140" t="s">
         <v>4</v>
       </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
@@ -2380,12 +1960,6 @@
       <c r="B142" t="s">
         <v>4</v>
       </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
@@ -2408,12 +1982,6 @@
       <c r="B144" t="s">
         <v>4</v>
       </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
@@ -2436,12 +2004,6 @@
       <c r="B146" t="s">
         <v>4</v>
       </c>
-      <c r="C146">
-        <v>0</v>
-      </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
@@ -2464,12 +2026,6 @@
       <c r="B148" t="s">
         <v>4</v>
       </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
@@ -2492,12 +2048,6 @@
       <c r="B150" t="s">
         <v>4</v>
       </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
@@ -2520,12 +2070,6 @@
       <c r="B152" t="s">
         <v>4</v>
       </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
@@ -2548,12 +2092,6 @@
       <c r="B154" t="s">
         <v>4</v>
       </c>
-      <c r="C154">
-        <v>0</v>
-      </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
@@ -2576,12 +2114,6 @@
       <c r="B156" t="s">
         <v>4</v>
       </c>
-      <c r="C156">
-        <v>0</v>
-      </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
@@ -2604,12 +2136,6 @@
       <c r="B158" t="s">
         <v>4</v>
       </c>
-      <c r="C158">
-        <v>0</v>
-      </c>
-      <c r="D158">
-        <v>0</v>
-      </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
@@ -2632,12 +2158,6 @@
       <c r="B160" t="s">
         <v>4</v>
       </c>
-      <c r="C160">
-        <v>0</v>
-      </c>
-      <c r="D160">
-        <v>0</v>
-      </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
@@ -2660,12 +2180,6 @@
       <c r="B162" t="s">
         <v>4</v>
       </c>
-      <c r="C162">
-        <v>0</v>
-      </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
@@ -2688,12 +2202,6 @@
       <c r="B164" t="s">
         <v>4</v>
       </c>
-      <c r="C164">
-        <v>0</v>
-      </c>
-      <c r="D164">
-        <v>0</v>
-      </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
@@ -2744,12 +2252,6 @@
       <c r="B168" t="s">
         <v>4</v>
       </c>
-      <c r="C168">
-        <v>0</v>
-      </c>
-      <c r="D168">
-        <v>0</v>
-      </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
@@ -2772,12 +2274,6 @@
       <c r="B170" t="s">
         <v>4</v>
       </c>
-      <c r="C170">
-        <v>0</v>
-      </c>
-      <c r="D170">
-        <v>0</v>
-      </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
@@ -2800,12 +2296,6 @@
       <c r="B172" t="s">
         <v>4</v>
       </c>
-      <c r="C172">
-        <v>0</v>
-      </c>
-      <c r="D172">
-        <v>0</v>
-      </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
@@ -2884,12 +2374,6 @@
       <c r="B178" t="s">
         <v>4</v>
       </c>
-      <c r="C178">
-        <v>0</v>
-      </c>
-      <c r="D178">
-        <v>0</v>
-      </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
@@ -2940,12 +2424,6 @@
       <c r="B182" t="s">
         <v>4</v>
       </c>
-      <c r="C182">
-        <v>0</v>
-      </c>
-      <c r="D182">
-        <v>0</v>
-      </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
@@ -2996,12 +2474,6 @@
       <c r="B186" t="s">
         <v>4</v>
       </c>
-      <c r="C186">
-        <v>0</v>
-      </c>
-      <c r="D186">
-        <v>0</v>
-      </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
@@ -3024,12 +2496,6 @@
       <c r="B188" t="s">
         <v>4</v>
       </c>
-      <c r="C188">
-        <v>0</v>
-      </c>
-      <c r="D188">
-        <v>0</v>
-      </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
@@ -3052,12 +2518,6 @@
       <c r="B190" t="s">
         <v>4</v>
       </c>
-      <c r="C190">
-        <v>0</v>
-      </c>
-      <c r="D190">
-        <v>0</v>
-      </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
@@ -3080,12 +2540,6 @@
       <c r="B192" t="s">
         <v>4</v>
       </c>
-      <c r="C192">
-        <v>0</v>
-      </c>
-      <c r="D192">
-        <v>0</v>
-      </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
@@ -3108,12 +2562,6 @@
       <c r="B194" t="s">
         <v>4</v>
       </c>
-      <c r="C194">
-        <v>0</v>
-      </c>
-      <c r="D194">
-        <v>0</v>
-      </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
@@ -3136,12 +2584,6 @@
       <c r="B196" t="s">
         <v>4</v>
       </c>
-      <c r="C196">
-        <v>0</v>
-      </c>
-      <c r="D196">
-        <v>0</v>
-      </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
@@ -3276,12 +2718,6 @@
       <c r="B206" t="s">
         <v>4</v>
       </c>
-      <c r="C206">
-        <v>0</v>
-      </c>
-      <c r="D206">
-        <v>0</v>
-      </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
@@ -3416,12 +2852,6 @@
       <c r="B216" t="s">
         <v>4</v>
       </c>
-      <c r="C216">
-        <v>0</v>
-      </c>
-      <c r="D216">
-        <v>0</v>
-      </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
@@ -3556,12 +2986,6 @@
       <c r="B226" t="s">
         <v>4</v>
       </c>
-      <c r="C226">
-        <v>0</v>
-      </c>
-      <c r="D226">
-        <v>0</v>
-      </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
@@ -3668,12 +3092,6 @@
       <c r="B234" t="s">
         <v>4</v>
       </c>
-      <c r="C234">
-        <v>0</v>
-      </c>
-      <c r="D234">
-        <v>0</v>
-      </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
@@ -3724,12 +3142,6 @@
       <c r="B238" t="s">
         <v>4</v>
       </c>
-      <c r="C238">
-        <v>0</v>
-      </c>
-      <c r="D238">
-        <v>0</v>
-      </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
@@ -3752,12 +3164,6 @@
       <c r="B240" t="s">
         <v>4</v>
       </c>
-      <c r="C240">
-        <v>0</v>
-      </c>
-      <c r="D240">
-        <v>0</v>
-      </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
@@ -3808,12 +3214,6 @@
       <c r="B244" t="s">
         <v>4</v>
       </c>
-      <c r="C244">
-        <v>0</v>
-      </c>
-      <c r="D244">
-        <v>0</v>
-      </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
@@ -3864,12 +3264,6 @@
       <c r="B248" t="s">
         <v>4</v>
       </c>
-      <c r="C248">
-        <v>0</v>
-      </c>
-      <c r="D248">
-        <v>0</v>
-      </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
@@ -3976,12 +3370,6 @@
       <c r="B256" t="s">
         <v>4</v>
       </c>
-      <c r="C256">
-        <v>0</v>
-      </c>
-      <c r="D256">
-        <v>0</v>
-      </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
@@ -4004,12 +3392,6 @@
       <c r="B258" t="s">
         <v>4</v>
       </c>
-      <c r="C258">
-        <v>0</v>
-      </c>
-      <c r="D258">
-        <v>0</v>
-      </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
@@ -4116,12 +3498,6 @@
       <c r="B266" t="s">
         <v>4</v>
       </c>
-      <c r="C266">
-        <v>0</v>
-      </c>
-      <c r="D266">
-        <v>0</v>
-      </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
@@ -4200,12 +3576,6 @@
       <c r="B272" t="s">
         <v>4</v>
       </c>
-      <c r="C272">
-        <v>0</v>
-      </c>
-      <c r="D272">
-        <v>0</v>
-      </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
@@ -4284,12 +3654,6 @@
       <c r="B278" t="s">
         <v>4</v>
       </c>
-      <c r="C278">
-        <v>0</v>
-      </c>
-      <c r="D278">
-        <v>0</v>
-      </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
@@ -4340,12 +3704,6 @@
       <c r="B282" t="s">
         <v>4</v>
       </c>
-      <c r="C282">
-        <v>0</v>
-      </c>
-      <c r="D282">
-        <v>0</v>
-      </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
@@ -4452,12 +3810,6 @@
       <c r="B290" t="s">
         <v>4</v>
       </c>
-      <c r="C290">
-        <v>0</v>
-      </c>
-      <c r="D290">
-        <v>0</v>
-      </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
@@ -4480,12 +3832,6 @@
       <c r="B292" t="s">
         <v>4</v>
       </c>
-      <c r="C292">
-        <v>0</v>
-      </c>
-      <c r="D292">
-        <v>0</v>
-      </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
@@ -4564,12 +3910,6 @@
       <c r="B298" t="s">
         <v>4</v>
       </c>
-      <c r="C298">
-        <v>0</v>
-      </c>
-      <c r="D298">
-        <v>0</v>
-      </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
@@ -4648,12 +3988,6 @@
       <c r="B304" t="s">
         <v>4</v>
       </c>
-      <c r="C304">
-        <v>0</v>
-      </c>
-      <c r="D304">
-        <v>0</v>
-      </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
@@ -5278,12 +4612,6 @@
       <c r="B349" t="s">
         <v>5</v>
       </c>
-      <c r="C349">
-        <v>0</v>
-      </c>
-      <c r="D349">
-        <v>0</v>
-      </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
@@ -5544,12 +4872,6 @@
       <c r="B368" t="s">
         <v>4</v>
       </c>
-      <c r="C368">
-        <v>0</v>
-      </c>
-      <c r="D368">
-        <v>0</v>
-      </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="2">
@@ -5572,12 +4894,6 @@
       <c r="B370" t="s">
         <v>4</v>
       </c>
-      <c r="C370">
-        <v>0</v>
-      </c>
-      <c r="D370">
-        <v>0</v>
-      </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="2">
@@ -5684,12 +5000,6 @@
       <c r="B378" t="s">
         <v>4</v>
       </c>
-      <c r="C378">
-        <v>0</v>
-      </c>
-      <c r="D378">
-        <v>0</v>
-      </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="2">
@@ -5712,12 +5022,6 @@
       <c r="B380" t="s">
         <v>4</v>
       </c>
-      <c r="C380">
-        <v>0</v>
-      </c>
-      <c r="D380">
-        <v>0</v>
-      </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="2">
@@ -6216,12 +5520,6 @@
       <c r="B416" t="s">
         <v>4</v>
       </c>
-      <c r="C416">
-        <v>0</v>
-      </c>
-      <c r="D416">
-        <v>0</v>
-      </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2">
@@ -6664,12 +5962,6 @@
       <c r="B448" t="s">
         <v>4</v>
       </c>
-      <c r="C448">
-        <v>0</v>
-      </c>
-      <c r="D448">
-        <v>0</v>
-      </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="2">
@@ -8147,12 +7439,6 @@
       </c>
       <c r="B554" t="s">
         <v>4</v>
-      </c>
-      <c r="C554">
-        <v>0</v>
-      </c>
-      <c r="D554">
-        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:4">
